--- a/graph.xlsx
+++ b/graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jooney Han\Desktop\과학전람회\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BD5D7A-556E-451D-8F93-2A3E46F3AD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D2B88C-562F-4E00-BE24-8CE018B90775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>15cm</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,30 @@
   </si>
   <si>
     <t>50번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,28 +338,42 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15cm</c:v>
+                  <c:v>15mm</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16cm</c:v>
+                  <c:v>16mm</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17cm</c:v>
+                  <c:v>17mm</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18cm</c:v>
+                  <c:v>18mm</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19cm</c:v>
+                  <c:v>19mm</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20cm</c:v>
+                  <c:v>20mm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -849,6 +887,20 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$L$1:$Q$1</c:f>
@@ -1267,7 +1319,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>자른 서의 길이별 최소압력 변화량</a:t>
+              <a:t>자르지 않은 서의 길이별 최소압력 변화량</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1392,6 +1444,20 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$23:$G$23</c:f>
@@ -1498,7 +1564,7 @@
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>잘린 서의 길이</a:t>
+                  <a:t>자르지 않은 서의 길이</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1507,8 +1573,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.38822880252475467"/>
-              <c:y val="0.87839354529828662"/>
+              <c:x val="0.33660519935043687"/>
+              <c:y val="0.87839342141142374"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1851,7 +1917,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>일반 서</c:v>
+            <c:v>자른 서</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -1921,6 +1987,20 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$M$24:$R$24</c:f>
@@ -1984,7 +2064,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>자른 서</c:v>
+            <c:v>자르지 않은 서</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -2054,6 +2134,20 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$M$24:$R$24</c:f>
@@ -2458,6 +2552,2117 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>서 길이별 최소압력 변화량</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>실험 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$45:$G$45</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15cm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16cm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17cm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18cm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19cm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$46:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>105750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106709</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D47-4317-9D27-08F3FB13DDE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>실험 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$45:$G$45</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15cm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16cm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17cm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18cm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19cm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>105603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105730</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103278</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3D47-4317-9D27-08F3FB13DDE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>실험 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$45:$G$45</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15cm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16cm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17cm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18cm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19cm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$48:$G$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>106083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105884</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3D47-4317-9D27-08F3FB13DDE7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="217900479"/>
+        <c:axId val="205388207"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="217900479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>태평소 서 길이</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39702874925296538"/>
+              <c:y val="0.8076250196770508"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205388207"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="205388207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="109000"/>
+          <c:min val="94000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>압력 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>(Pa)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5975432501272722E-2"/>
+              <c:y val="0.38576089169895628"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217900479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>서 두께별 최소압력 변화량</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21708051754049237"/>
+          <c:y val="3.2757558813861117E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>실험 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$45:$Q$45</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0번</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10번</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20번</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30번</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40번</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50번</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$46:$Q$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>103054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106860</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-735B-4CBB-B63B-E98C102C040A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>실험 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$45:$Q$45</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0번</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10번</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20번</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30번</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40번</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50번</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$47:$Q$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>104210</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103347</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102238</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-735B-4CBB-B63B-E98C102C040A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>실험 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$45:$Q$45</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0번</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10번</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20번</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30번</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40번</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50번</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$48:$Q$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>107231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100306</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-735B-4CBB-B63B-E98C102C040A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="457545135"/>
+        <c:axId val="457548975"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="457545135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>태평소 서를 사포에 간 횟수</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.3011073839982622"/>
+              <c:y val="0.80048783829057713"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457548975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="457548975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="109000"/>
+          <c:min val="97500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>압력 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>(Pa)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1809963368655352E-2"/>
+              <c:y val="0.3941049577404564"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457545135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>자르지 않은 서의 길이별 최소압력 변화량</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11238143966054724"/>
+          <c:y val="2.7600843983512764E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>실험 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$68:$G$68</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15cm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16cm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17cm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18cm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19cm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$69:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>113205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF67-4F00-8A19-2F81DF4672D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>실험 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$68:$G$68</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15cm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16cm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17cm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18cm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19cm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$70:$G$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>110203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103746</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DF67-4F00-8A19-2F81DF4672D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>실험 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$68:$G$68</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>15cm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16cm</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17cm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18cm</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19cm</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20cm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$71:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>113912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108196</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104337</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DF67-4F00-8A19-2F81DF4672D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="205364687"/>
+        <c:axId val="205373807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="205364687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>자르지 않은 서의 길이</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.34582334099236084"/>
+              <c:y val="0.77992223330257604"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205373807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="205373807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="115000"/>
+          <c:min val="101000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>압력 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="1500" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>(Pa)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1500" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2757604838380232E-2"/>
+              <c:y val="0.37852989646423563"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="205364687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2618,6 +4823,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4129,6 +6454,1515 @@
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4776,6 +8610,114 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>26194</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>37183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>556592</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>158261</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDD3002-7FD1-4B7E-E8E2-DCA76E48B871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>308366</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>49058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>463825</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>39755</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="차트 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83188DB-C2A3-3935-66F9-D2C875360A43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>627185</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>143607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>474785</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>64478</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="차트 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B0A2EB2-68E3-6801-58E9-ACA2A871B25B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5042,35 +8984,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:R26"/>
+  <dimension ref="B1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="20" width="8.796875" style="1"/>
+    <col min="21" max="21" width="9" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>6</v>
@@ -5225,6 +9169,310 @@
       </c>
       <c r="R26" s="1">
         <v>104906</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
+        <v>105750</v>
+      </c>
+      <c r="C46" s="1">
+        <v>106709</v>
+      </c>
+      <c r="D46" s="1">
+        <v>106105</v>
+      </c>
+      <c r="E46" s="1">
+        <v>104841</v>
+      </c>
+      <c r="F46" s="1">
+        <v>102132</v>
+      </c>
+      <c r="G46" s="1">
+        <v>99029</v>
+      </c>
+      <c r="L46" s="1">
+        <v>103054</v>
+      </c>
+      <c r="M46" s="1">
+        <v>102229</v>
+      </c>
+      <c r="N46" s="1">
+        <v>106860</v>
+      </c>
+      <c r="O46" s="1">
+        <v>102599</v>
+      </c>
+      <c r="P46" s="1">
+        <v>102412</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>100040</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <v>105603</v>
+      </c>
+      <c r="C47" s="1">
+        <v>105730</v>
+      </c>
+      <c r="D47" s="1">
+        <v>105386</v>
+      </c>
+      <c r="E47" s="1">
+        <v>104165</v>
+      </c>
+      <c r="F47" s="1">
+        <v>103278</v>
+      </c>
+      <c r="G47" s="1">
+        <v>94539</v>
+      </c>
+      <c r="L47" s="1">
+        <v>104210</v>
+      </c>
+      <c r="M47" s="1">
+        <v>103347</v>
+      </c>
+      <c r="N47" s="1">
+        <v>102238</v>
+      </c>
+      <c r="O47" s="1">
+        <v>101845</v>
+      </c>
+      <c r="P47" s="1">
+        <v>99385</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>98930</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <v>106083</v>
+      </c>
+      <c r="C48" s="1">
+        <v>105884</v>
+      </c>
+      <c r="D48" s="1">
+        <v>105031</v>
+      </c>
+      <c r="E48" s="1">
+        <v>104974</v>
+      </c>
+      <c r="F48" s="1">
+        <v>104097</v>
+      </c>
+      <c r="G48" s="1">
+        <v>100138</v>
+      </c>
+      <c r="L48" s="1">
+        <v>107231</v>
+      </c>
+      <c r="M48" s="1">
+        <v>102754</v>
+      </c>
+      <c r="N48" s="1">
+        <v>102386</v>
+      </c>
+      <c r="O48" s="1">
+        <v>100306</v>
+      </c>
+      <c r="P48" s="1">
+        <v>98221</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>98753</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B69" s="1">
+        <v>113205</v>
+      </c>
+      <c r="C69" s="1">
+        <v>109638</v>
+      </c>
+      <c r="D69" s="1">
+        <v>108289</v>
+      </c>
+      <c r="E69" s="1">
+        <v>102904</v>
+      </c>
+      <c r="F69" s="1">
+        <v>102105</v>
+      </c>
+      <c r="G69" s="1">
+        <v>104906</v>
+      </c>
+      <c r="I69" s="1">
+        <v>105750</v>
+      </c>
+      <c r="J69" s="1">
+        <v>106709</v>
+      </c>
+      <c r="K69" s="1">
+        <v>106105</v>
+      </c>
+      <c r="L69" s="1">
+        <v>104841</v>
+      </c>
+      <c r="M69" s="1">
+        <v>102132</v>
+      </c>
+      <c r="N69" s="1">
+        <v>99029</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B70" s="1">
+        <v>110203</v>
+      </c>
+      <c r="C70" s="1">
+        <v>106984</v>
+      </c>
+      <c r="D70" s="1">
+        <v>107032</v>
+      </c>
+      <c r="E70" s="1">
+        <v>104986</v>
+      </c>
+      <c r="F70" s="1">
+        <v>103746</v>
+      </c>
+      <c r="G70" s="1">
+        <v>102123</v>
+      </c>
+      <c r="I70" s="1">
+        <v>105603</v>
+      </c>
+      <c r="J70" s="1">
+        <v>105730</v>
+      </c>
+      <c r="K70" s="1">
+        <v>105386</v>
+      </c>
+      <c r="L70" s="1">
+        <v>104165</v>
+      </c>
+      <c r="M70" s="1">
+        <v>103278</v>
+      </c>
+      <c r="N70" s="1">
+        <v>94539</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B71" s="1">
+        <v>113912</v>
+      </c>
+      <c r="C71" s="1">
+        <v>109721</v>
+      </c>
+      <c r="D71" s="1">
+        <v>108196</v>
+      </c>
+      <c r="E71" s="1">
+        <v>106254</v>
+      </c>
+      <c r="F71" s="1">
+        <v>104337</v>
+      </c>
+      <c r="G71" s="1">
+        <v>103853</v>
+      </c>
+      <c r="I71" s="1">
+        <v>106083</v>
+      </c>
+      <c r="J71" s="1">
+        <v>105884</v>
+      </c>
+      <c r="K71" s="1">
+        <v>105031</v>
+      </c>
+      <c r="L71" s="1">
+        <v>104974</v>
+      </c>
+      <c r="M71" s="1">
+        <v>104097</v>
+      </c>
+      <c r="N71" s="1">
+        <v>100138</v>
       </c>
     </row>
   </sheetData>
